--- a/public/excel/ngo.xlsx
+++ b/public/excel/ngo.xlsx
@@ -9,22 +9,28 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miclBh+d10X5VBFP4YAVVB5Tytvsw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjH6JYMUBQQtNXBaxm28mHR2rsI8g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Account number</t>
+    <t>Phone Prefix</t>
   </si>
   <si>
     <t>Phone</t>
@@ -33,10 +39,19 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>Phone Prefix</t>
+    <t>Account number</t>
   </si>
   <si>
-    <t>Long Name</t>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
   <si>
     <t>Longitude</t>
@@ -44,36 +59,30 @@
   <si>
     <t>Latitude</t>
   </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Post Code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -86,6 +95,14 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -109,35 +126,35 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,7 +372,6 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
     <col customWidth="1" min="7" max="7" width="16.29"/>
   </cols>
   <sheetData>
@@ -366,7 +382,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -375,89 +391,94 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
